--- a/bushnaq-family.xlsx
+++ b/bushnaq-family.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -88,10 +88,7 @@
     <t xml:space="preserve">Josting</t>
   </si>
   <si>
-    <t xml:space="preserve">Constanze Shuruq Shuruq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushnaq Josting</t>
+    <t xml:space="preserve">Constanze Shuruq Magnolia</t>
   </si>
 </sst>
 </file>
@@ -196,10 +193,10 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.54"/>
@@ -315,7 +312,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>23857</v>
+        <v>24222</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="0" t="str">
@@ -388,7 +385,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>34398</v>
+        <v>35129</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="0" t="str">
@@ -431,10 +428,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>36025</v>
+        <v>36756</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="0" t="str">

--- a/bushnaq-family.xlsx
+++ b/bushnaq-family.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -49,30 +49,81 @@
     <t xml:space="preserve">Male</t>
   </si>
   <si>
+    <t xml:space="preserve">Abdalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushnaq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hikmat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nabila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nabil</t>
   </si>
   <si>
-    <t xml:space="preserve">Bushnaq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ute</t>
   </si>
   <si>
     <t xml:space="preserve">Plato</t>
   </si>
   <si>
-    <t xml:space="preserve">Abdalla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abier</t>
   </si>
   <si>
-    <t xml:space="preserve">Hikmat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jessica</t>
   </si>
   <si>
@@ -89,6 +140,63 @@
   </si>
   <si>
     <t xml:space="preserve">Constanze Shuruq Magnolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fadwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tareq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirene?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farihan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maysa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farid</t>
   </si>
 </sst>
 </file>
@@ -122,12 +230,24 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFEFE6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFE6E6"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,8 +284,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,6 +310,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEFE6E6"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFDEE6EF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -190,20 +378,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -237,7 +427,7 @@
         <f aca="false">ROW()</f>
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -246,55 +436,43 @@
       <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>14618</v>
-      </c>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">ROW()</f>
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>15744</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">ROW()</f>
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>23733</v>
-      </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="0" t="str">
         <f aca="false">$C$2</f>
-        <v>Nabil</v>
+        <v>Abdalla</v>
       </c>
       <c r="H4" s="0" t="str">
         <f aca="false">$C$3</f>
-        <v>Ute</v>
+        <v>Hikmat</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,26 +480,14 @@
         <f aca="false">ROW()</f>
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>24222</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="0" t="str">
-        <f aca="false">$C$2</f>
-        <v>Nabil</v>
-      </c>
-      <c r="H5" s="0" t="str">
-        <f aca="false">$C$3</f>
-        <v>Ute</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,26 +495,22 @@
         <f aca="false">ROW()</f>
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>25858</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>14</v>
+      </c>
       <c r="G6" s="0" t="str">
-        <f aca="false">$C$2</f>
-        <v>Nabil</v>
+        <f aca="false">$C$5</f>
+        <v>Awad</v>
       </c>
       <c r="H6" s="0" t="str">
-        <f aca="false">$C$3</f>
-        <v>Ute</v>
+        <f aca="false">$C$4</f>
+        <v>Susan</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,45 +518,31 @@
         <f aca="false">ROW()</f>
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>23851</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">ROW()</f>
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>35129</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>17</v>
+      </c>
       <c r="G8" s="0" t="str">
-        <f aca="false">$C$4</f>
-        <v>Abdalla</v>
+        <f aca="false">$C$7</f>
+        <v>TBD</v>
       </c>
       <c r="H8" s="0" t="str">
-        <f aca="false">$C$7</f>
-        <v>Jessica</v>
+        <f aca="false">$C$6</f>
+        <v>Iman</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -402,84 +550,1028 @@
         <f aca="false">ROW()</f>
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>11</v>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>25606</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">$C$7</f>
+        <v>TBD</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <f aca="false">$C$6</f>
+        <v>Iman</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <f aca="false">ROW()</f>
         <v>10</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">$C$5</f>
+        <v>Awad</v>
+      </c>
+      <c r="H10" s="0" t="str">
+        <f aca="false">$C$4</f>
+        <v>Susan</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">$C$11</f>
+        <v>TBD</v>
+      </c>
+      <c r="H12" s="0" t="str">
+        <f aca="false">$C$10</f>
+        <v>Serene</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">$C$11</f>
+        <v>TBD</v>
+      </c>
+      <c r="H13" s="0" t="str">
+        <f aca="false">$C$10</f>
+        <v>Serene</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">$C$5</f>
+        <v>Awad</v>
+      </c>
+      <c r="H14" s="0" t="str">
+        <f aca="false">$C$4</f>
+        <v>Susan</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">$C$14</f>
+        <v>Maher</v>
+      </c>
+      <c r="H16" s="0" t="str">
+        <f aca="false">$C$15</f>
+        <v>TBD</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">$C$14</f>
+        <v>Maher</v>
+      </c>
+      <c r="H17" s="0" t="str">
+        <f aca="false">$C$15</f>
+        <v>TBD</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">$C$14</f>
+        <v>Maher</v>
+      </c>
+      <c r="H18" s="0" t="str">
+        <f aca="false">$C$15</f>
+        <v>TBD</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">$C$5</f>
+        <v>Awad</v>
+      </c>
+      <c r="H19" s="0" t="str">
+        <f aca="false">$C$4</f>
+        <v>Susan</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <f aca="false">ROW()</f>
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">$C$20</f>
+        <v>TBD</v>
+      </c>
+      <c r="H21" s="0" t="str">
+        <f aca="false">$C$19</f>
+        <v>Sima</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">$C$20</f>
+        <v>TBD</v>
+      </c>
+      <c r="H22" s="0" t="str">
+        <f aca="false">$C$19</f>
+        <v>Sima</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">$C$2</f>
+        <v>Abdalla</v>
+      </c>
+      <c r="H23" s="0" t="str">
+        <f aca="false">$C$3</f>
+        <v>Hikmat</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>14618</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="0" t="str">
+        <f aca="false">$C$2</f>
+        <v>Abdalla</v>
+      </c>
+      <c r="H24" s="0" t="str">
+        <f aca="false">$C$3</f>
+        <v>Hikmat</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>15744</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>23733</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="0" t="str">
+        <f aca="false">$C$24</f>
+        <v>Nabil</v>
+      </c>
+      <c r="H26" s="0" t="str">
+        <f aca="false">$C$25</f>
+        <v>Ute</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>24222</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="0" t="str">
+        <f aca="false">$C$24</f>
+        <v>Nabil</v>
+      </c>
+      <c r="H27" s="0" t="str">
+        <f aca="false">$C$25</f>
+        <v>Ute</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>25858</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="0" t="str">
+        <f aca="false">$C$24</f>
+        <v>Nabil</v>
+      </c>
+      <c r="H28" s="0" t="str">
+        <f aca="false">$C$25</f>
+        <v>Ute</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>23851</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>35129</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="0" t="str">
+        <f aca="false">$C$26</f>
+        <v>Abdalla</v>
+      </c>
+      <c r="H30" s="0" t="str">
+        <f aca="false">$C$29</f>
+        <v>Jessica</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>25606</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="3" t="n">
         <v>36756</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="0" t="str">
-        <f aca="false">C6</f>
+      <c r="F32" s="3"/>
+      <c r="G32" s="0" t="str">
+        <f aca="false">C28</f>
         <v>Hikmat</v>
       </c>
-      <c r="H10" s="0" t="str">
-        <f aca="false">C9</f>
+      <c r="H32" s="0" t="str">
+        <f aca="false">C31</f>
         <v>Cora</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="1"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="0" t="str">
+        <f aca="false">$C$2</f>
+        <v>Abdalla</v>
+      </c>
+      <c r="H33" s="0" t="str">
+        <f aca="false">$C$3</f>
+        <v>Hikmat</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="0" t="str">
+        <f aca="false">$C$33</f>
+        <v>Walid</v>
+      </c>
+      <c r="H35" s="0" t="str">
+        <f aca="false">$C$34</f>
+        <v>Fadwa</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="0" t="str">
+        <f aca="false">$C$36</f>
+        <v>TBD</v>
+      </c>
+      <c r="H37" s="0" t="str">
+        <f aca="false">$C$35</f>
+        <v>Dima</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="0" t="str">
+        <f aca="false">$C$36</f>
+        <v>TBD</v>
+      </c>
+      <c r="H38" s="0" t="str">
+        <f aca="false">$C$35</f>
+        <v>Dima</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="0" t="str">
+        <f aca="false">$C$33</f>
+        <v>Walid</v>
+      </c>
+      <c r="H39" s="0" t="str">
+        <f aca="false">$C$34</f>
+        <v>Fadwa</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="0" t="str">
+        <f aca="false">$C$40</f>
+        <v>TBD</v>
+      </c>
+      <c r="H41" s="0" t="str">
+        <f aca="false">$C$39</f>
+        <v>Rania</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="0" t="str">
+        <f aca="false">$C$40</f>
+        <v>TBD</v>
+      </c>
+      <c r="H42" s="0" t="str">
+        <f aca="false">$C$39</f>
+        <v>Rania</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="0" t="str">
+        <f aca="false">$C$33</f>
+        <v>Walid</v>
+      </c>
+      <c r="H43" s="0" t="str">
+        <f aca="false">$C$34</f>
+        <v>Fadwa</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="0" t="str">
+        <f aca="false">$C$44</f>
+        <v>TBD</v>
+      </c>
+      <c r="H45" s="0" t="str">
+        <f aca="false">$C$43</f>
+        <v>Manal</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="0" t="str">
+        <f aca="false">$C$44</f>
+        <v>TBD</v>
+      </c>
+      <c r="H46" s="0" t="str">
+        <f aca="false">$C$43</f>
+        <v>Manal</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="0" t="str">
+        <f aca="false">$C$44</f>
+        <v>TBD</v>
+      </c>
+      <c r="H47" s="0" t="str">
+        <f aca="false">$C$43</f>
+        <v>Manal</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="G48" s="0" t="str">
+        <f aca="false">$C$33</f>
+        <v>Walid</v>
+      </c>
+      <c r="H48" s="0" t="str">
+        <f aca="false">$C$34</f>
+        <v>Fadwa</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="G50" s="0" t="str">
+        <f aca="false">$C$49</f>
+        <v>TBD</v>
+      </c>
+      <c r="H50" s="0" t="str">
+        <f aca="false">$C$48</f>
+        <v>Muna</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">$C$33</f>
+        <v>Walid</v>
+      </c>
+      <c r="H51" s="0" t="str">
+        <f aca="false">$C$34</f>
+        <v>Fadwa</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">$C$2</f>
+        <v>Abdalla</v>
+      </c>
+      <c r="H52" s="0" t="str">
+        <f aca="false">$C$3</f>
+        <v>Hikmat</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">$C$53</f>
+        <v>TBD</v>
+      </c>
+      <c r="H54" s="0" t="str">
+        <f aca="false">$C$52</f>
+        <v>Farihan</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">$C$55</f>
+        <v>TBD</v>
+      </c>
+      <c r="H56" s="0" t="str">
+        <f aca="false">$C$54</f>
+        <v>Zana</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">$C$53</f>
+        <v>TBD</v>
+      </c>
+      <c r="H57" s="0" t="str">
+        <f aca="false">$C$52</f>
+        <v>Farihan</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <f aca="false">ROW()</f>
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">$C$2</f>
+        <v>Abdalla</v>
+      </c>
+      <c r="H58" s="0" t="str">
+        <f aca="false">$C$3</f>
+        <v>Hikmat</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
